--- a/리디북스 데이터 테이블.xlsx
+++ b/리디북스 데이터 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekdh0\OneDrive\Documents\RidiBooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768C21F-378E-4EFA-A3BC-814BAADFC795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1560CC1A-1DAF-47AB-B42B-D851EAC6DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4397653-FF16-4D14-A908-7AB26439274F}"/>
   </bookViews>
@@ -51,30 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,6 +713,30 @@
   </si>
   <si>
     <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,6 +869,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,19 +888,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E9F032-FDFC-4D5E-80EC-72CA111A620B}">
   <dimension ref="B2:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:G63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1226,13 +1226,13 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -1243,166 +1243,166 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>93</v>
+        <v>11</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -1413,13 +1413,13 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -1429,82 +1429,82 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G22" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -1520,51 +1520,51 @@
         <v>3</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
@@ -1575,13 +1575,13 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
@@ -1597,74 +1597,74 @@
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="B37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
@@ -1680,60 +1680,60 @@
         <v>3</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="B43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
@@ -1749,149 +1749,149 @@
         <v>3</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="15"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="15"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="B55" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
@@ -1907,35 +1907,35 @@
         <v>3</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
@@ -1946,13 +1946,13 @@
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="B60" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
@@ -1968,64 +1968,64 @@
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>176</v>
+        <v>153</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
+      <c r="B66" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
@@ -2041,115 +2041,115 @@
         <v>3</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
+      <c r="B76" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
@@ -2165,51 +2165,51 @@
         <v>3</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>103</v>
+        <v>53</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="G79" s="9"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+      <c r="B81" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
@@ -2225,64 +2225,64 @@
         <v>3</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>103</v>
+        <v>53</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="G84" s="9"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
+      <c r="B87" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
@@ -2298,102 +2298,102 @@
         <v>3</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G92" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
+      <c r="B96" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
@@ -2409,58 +2409,58 @@
         <v>3</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
+      <c r="B102" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
@@ -2476,64 +2476,64 @@
         <v>3</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>103</v>
+        <v>53</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G105" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="G105" s="15"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
+      <c r="B108" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
@@ -2549,84 +2549,84 @@
         <v>3</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B117" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="10"/>
+      <c r="B117" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="13"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
@@ -2642,35 +2642,35 @@
         <v>3</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B120" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -2682,66 +2682,66 @@
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B121" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I121" s="2"/>
-      <c r="J121" s="15"/>
+      <c r="J121" s="8"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
-      <c r="N121" s="15"/>
+      <c r="N121" s="8"/>
       <c r="O121" s="2"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B122" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I122" s="2"/>
-      <c r="J122" s="15"/>
+      <c r="J122" s="8"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
-      <c r="N122" s="15"/>
+      <c r="N122" s="8"/>
       <c r="O122" s="2"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B123" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I123" s="2"/>
-      <c r="J123" s="15"/>
+      <c r="J123" s="8"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
-      <c r="N123" s="15"/>
+      <c r="N123" s="8"/>
       <c r="O123" s="2"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.3">
@@ -2754,13 +2754,13 @@
       <c r="O124" s="2"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B125" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="10"/>
+      <c r="B125" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="13"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -2783,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
@@ -2795,163 +2795,163 @@
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B127" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I127" s="2"/>
-      <c r="J127" s="15"/>
+      <c r="J127" s="8"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
-      <c r="N127" s="15"/>
+      <c r="N127" s="8"/>
       <c r="O127" s="2"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B128" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I128" s="2"/>
-      <c r="J128" s="15"/>
+      <c r="J128" s="8"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-      <c r="N128" s="15"/>
+      <c r="N128" s="8"/>
       <c r="O128" s="2"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B129" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I129" s="2"/>
-      <c r="J129" s="15"/>
+      <c r="J129" s="8"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
-      <c r="N129" s="15"/>
+      <c r="N129" s="8"/>
       <c r="O129" s="2"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B130" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I130" s="2"/>
-      <c r="J130" s="15"/>
+      <c r="J130" s="8"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
-      <c r="N130" s="15"/>
+      <c r="N130" s="8"/>
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B131" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I131" s="2"/>
-      <c r="J131" s="15"/>
+      <c r="J131" s="8"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
-      <c r="N131" s="15"/>
+      <c r="N131" s="8"/>
       <c r="O131" s="2"/>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B132" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I132" s="2"/>
-      <c r="J132" s="15"/>
+      <c r="J132" s="8"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
-      <c r="N132" s="15"/>
+      <c r="N132" s="8"/>
       <c r="O132" s="2"/>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B133" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I133" s="2"/>
-      <c r="J133" s="15"/>
+      <c r="J133" s="8"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
-      <c r="N133" s="15"/>
+      <c r="N133" s="8"/>
       <c r="O133" s="2"/>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B134" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -2963,17 +2963,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B117:F117"/>
     <mergeCell ref="B125:F125"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B60:F60"/>
     <mergeCell ref="G78:G79"/>
     <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B96:F96"/>
     <mergeCell ref="B102:F102"/>
     <mergeCell ref="G104:G105"/>
@@ -2981,6 +2975,12 @@
     <mergeCell ref="B76:F76"/>
     <mergeCell ref="B81:F81"/>
     <mergeCell ref="B87:F87"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B30:F30"/>
